--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Benefit.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Benefit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Desktop\(OPR)Import\Import_Emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA34F3F-EFFC-45DD-B25A-4E88184BEB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB64F1E-3A07-4654-A42B-A9107EACB230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>company_code</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>งวดแรก</t>
+  </si>
+  <si>
+    <t>empbenefit_capitalamount</t>
+  </si>
+  <si>
+    <t>จำนวนเงินต้น</t>
+  </si>
+  <si>
+    <t>จำนวนงวด</t>
   </si>
 </sst>
 </file>
@@ -197,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,9 +219,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -243,9 +249,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,9 +289,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,26 +324,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,26 +359,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -574,25 +546,25 @@
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" customWidth="1"/>
-    <col min="17" max="17" width="17.77734375" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" customWidth="1"/>
-    <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="16.5546875" customWidth="1"/>
+    <col min="4" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16.21875" customWidth="1"/>
+    <col min="19" max="19" width="17.77734375" customWidth="1"/>
+    <col min="20" max="20" width="18.44140625" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" customWidth="1"/>
+    <col min="22" max="22" width="22.109375" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -606,65 +578,73 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8">
         <v>45077</v>
       </c>
-      <c r="F2" s="9">
+      <c r="H2" s="8">
         <v>45108</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="O2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -677,10 +657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,19 +668,19 @@
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="26.21875" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="4" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="26.21875" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -714,34 +694,40 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,71 +740,79 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>3000</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8">
         <v>45077</v>
       </c>
-      <c r="F3" s="9">
+      <c r="H3" s="8">
         <v>45108</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K4" s="5" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M4" s="5" t="s">
         <v>30</v>
       </c>
     </row>

--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Benefit.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Benefit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bhatara-my.sharepoint.com/personal/sukawit_s_bhatarapro_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB64F1E-3A07-4654-A42B-A9107EACB230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{8C81EBB4-02ED-4F39-A77E-729715C9C93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFF69DB9-BFEA-44A2-B83D-3236CD096A55}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>company_code</t>
   </si>
@@ -114,9 +114,6 @@
     <t>001</t>
   </si>
   <si>
-    <t>*ถ้าพักการจ่ายเป็น 1 ต้องใส่</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -133,6 +130,18 @@
   </si>
   <si>
     <t>จำนวนงวด</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>IMP004</t>
+  </si>
+  <si>
+    <t>empbenefit_period</t>
+  </si>
+  <si>
+    <t>เงินต้น</t>
   </si>
 </sst>
 </file>
@@ -206,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,13 +225,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -246,6 +263,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,36 +556,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
-    <col min="13" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="18.44140625" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" customWidth="1"/>
-    <col min="22" max="22" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="24.08984375" customWidth="1"/>
+    <col min="12" max="12" width="20.6328125" customWidth="1"/>
+    <col min="13" max="13" width="26.26953125" customWidth="1"/>
+    <col min="14" max="14" width="21.81640625" customWidth="1"/>
+    <col min="15" max="15" width="22.81640625" customWidth="1"/>
+    <col min="16" max="16" width="24.36328125" customWidth="1"/>
+    <col min="17" max="17" width="23.6328125" customWidth="1"/>
+    <col min="18" max="18" width="16.26953125" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
+    <col min="20" max="20" width="18.453125" customWidth="1"/>
+    <col min="21" max="21" width="19.26953125" customWidth="1"/>
+    <col min="22" max="22" width="22.1796875" customWidth="1"/>
     <col min="23" max="23" width="10" customWidth="1"/>
-    <col min="24" max="24" width="16.5546875" customWidth="1"/>
+    <col min="24" max="24" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,78 +601,61 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="7">
-        <v>3000</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>45077</v>
-      </c>
-      <c r="H2" s="8">
-        <v>45108</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="N2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -657,30 +666,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="26.21875" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" customWidth="1"/>
-    <col min="15" max="15" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="5" width="23.26953125" customWidth="1"/>
+    <col min="6" max="8" width="23.1796875" customWidth="1"/>
+    <col min="9" max="9" width="20.7265625" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" customWidth="1"/>
+    <col min="12" max="12" width="21.26953125" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="17.26953125" customWidth="1"/>
+    <col min="15" max="15" width="26.26953125" customWidth="1"/>
+    <col min="16" max="16" width="24.7265625" customWidth="1"/>
+    <col min="17" max="17" width="20.453125" customWidth="1"/>
+    <col min="18" max="18" width="27.6328125" customWidth="1"/>
+    <col min="19" max="19" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -691,43 +702,49 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,83 +754,128 @@
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>33</v>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
         <v>3000</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7">
         <v>45077</v>
       </c>
-      <c r="H3" s="8">
+      <c r="J3" s="7">
         <v>45108</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M4" s="5" t="s">
-        <v>30</v>
+    <row r="4" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>45292</v>
+      </c>
+      <c r="J4" s="10">
+        <v>45657</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +891,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
